--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H2">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I2">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J2">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.13260074011196</v>
+        <v>3.2611775</v>
       </c>
       <c r="N2">
-        <v>3.13260074011196</v>
+        <v>6.522354999999999</v>
       </c>
       <c r="O2">
-        <v>0.05159366205583095</v>
+        <v>0.04743349833867069</v>
       </c>
       <c r="P2">
-        <v>0.05159366205583095</v>
+        <v>0.03263576832733773</v>
       </c>
       <c r="Q2">
-        <v>1.80303447696391</v>
+        <v>2.11875930174125</v>
       </c>
       <c r="R2">
-        <v>1.80303447696391</v>
+        <v>8.475037206964998</v>
       </c>
       <c r="S2">
-        <v>0.0002589378666360855</v>
+        <v>0.0002573654579993421</v>
       </c>
       <c r="T2">
-        <v>0.0002589378666360855</v>
+        <v>0.0001193036975060302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H3">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I3">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J3">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.609369964636249</v>
+        <v>0.6218123333333333</v>
       </c>
       <c r="N3">
-        <v>0.609369964636249</v>
+        <v>1.865437</v>
       </c>
       <c r="O3">
-        <v>0.01003627038065905</v>
+        <v>0.009044197772164078</v>
       </c>
       <c r="P3">
-        <v>0.01003627038065905</v>
+        <v>0.009334047251528615</v>
       </c>
       <c r="Q3">
-        <v>0.3507357453494591</v>
+        <v>0.4039861875618333</v>
       </c>
       <c r="R3">
-        <v>0.3507357453494591</v>
+        <v>2.423917125371</v>
       </c>
       <c r="S3">
-        <v>5.036995510298505E-05</v>
+        <v>4.907215751303723E-05</v>
       </c>
       <c r="T3">
-        <v>5.036995510298505E-05</v>
+        <v>3.412165261850305E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H4">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I4">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J4">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6916897443058</v>
+        <v>18.43726666666667</v>
       </c>
       <c r="N4">
-        <v>10.6916897443058</v>
+        <v>55.3118</v>
       </c>
       <c r="O4">
-        <v>0.1760912012852911</v>
+        <v>0.2681681870437785</v>
       </c>
       <c r="P4">
-        <v>0.1760912012852911</v>
+        <v>0.2767624716176962</v>
       </c>
       <c r="Q4">
-        <v>6.153827705887544</v>
+        <v>11.97853543656667</v>
       </c>
       <c r="R4">
-        <v>6.153827705887544</v>
+        <v>71.8712126194</v>
       </c>
       <c r="S4">
-        <v>0.0008837651404712722</v>
+        <v>0.001455031374380165</v>
       </c>
       <c r="T4">
-        <v>0.0008837651404712722</v>
+        <v>0.001011736137593559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H5">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I5">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J5">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.9379413694214</v>
+        <v>40.98694466666667</v>
       </c>
       <c r="N5">
-        <v>40.9379413694214</v>
+        <v>122.960834</v>
       </c>
       <c r="O5">
-        <v>0.6742443380128489</v>
+        <v>0.5961509828132695</v>
       </c>
       <c r="P5">
-        <v>0.6742443380128489</v>
+        <v>0.6152564973480028</v>
       </c>
       <c r="Q5">
-        <v>23.56269624783267</v>
+        <v>26.62886956090367</v>
       </c>
       <c r="R5">
-        <v>23.56269624783267</v>
+        <v>159.773217365422</v>
       </c>
       <c r="S5">
-        <v>0.003383892197603281</v>
+        <v>0.003234605839801839</v>
       </c>
       <c r="T5">
-        <v>0.003383892197603281</v>
+        <v>0.002249138868495381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H6">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I6">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J6">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.26088973544918</v>
+        <v>2.301690333333334</v>
       </c>
       <c r="N6">
-        <v>2.26088973544918</v>
+        <v>6.905071</v>
       </c>
       <c r="O6">
-        <v>0.03723665753590194</v>
+        <v>0.03347785411934832</v>
       </c>
       <c r="P6">
-        <v>0.03723665753590194</v>
+        <v>0.03455075619769521</v>
       </c>
       <c r="Q6">
-        <v>1.301302808695305</v>
+        <v>1.495388645198833</v>
       </c>
       <c r="R6">
-        <v>1.301302808695305</v>
+        <v>8.972331871193001</v>
       </c>
       <c r="S6">
-        <v>0.0001868830449091035</v>
+        <v>0.0001816446933081661</v>
       </c>
       <c r="T6">
-        <v>0.0001868830449091035</v>
+        <v>0.0001263041496271916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H7">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I7">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J7">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.08428285767048</v>
+        <v>3.143733</v>
       </c>
       <c r="N7">
-        <v>3.08428285767048</v>
+        <v>6.287466</v>
       </c>
       <c r="O7">
-        <v>0.05079787072946804</v>
+        <v>0.04572527991276901</v>
       </c>
       <c r="P7">
-        <v>0.05079787072946804</v>
+        <v>0.0314604592577394</v>
       </c>
       <c r="Q7">
-        <v>1.775224099860837</v>
+        <v>2.0424566083695</v>
       </c>
       <c r="R7">
-        <v>1.775224099860837</v>
+        <v>8.169826433478001</v>
       </c>
       <c r="S7">
-        <v>0.0002549439553662685</v>
+        <v>0.0002480969782762962</v>
       </c>
       <c r="T7">
-        <v>0.0002549439553662685</v>
+        <v>0.0001150072238851534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H8">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J8">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.13260074011196</v>
+        <v>3.2611775</v>
       </c>
       <c r="N8">
-        <v>3.13260074011196</v>
+        <v>6.522354999999999</v>
       </c>
       <c r="O8">
-        <v>0.05159366205583095</v>
+        <v>0.04743349833867069</v>
       </c>
       <c r="P8">
-        <v>0.05159366205583095</v>
+        <v>0.03263576832733773</v>
       </c>
       <c r="Q8">
-        <v>2.260684997520092</v>
+        <v>3.253711577643333</v>
       </c>
       <c r="R8">
-        <v>2.260684997520092</v>
+        <v>19.52226946586</v>
       </c>
       <c r="S8">
-        <v>0.0003246620948589736</v>
+        <v>0.0003952279854015263</v>
       </c>
       <c r="T8">
-        <v>0.0003246620948589736</v>
+        <v>0.0002748163664782586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H9">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J9">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.609369964636249</v>
+        <v>0.6218123333333333</v>
       </c>
       <c r="N9">
-        <v>0.609369964636249</v>
+        <v>1.865437</v>
       </c>
       <c r="O9">
-        <v>0.01003627038065905</v>
+        <v>0.009044197772164078</v>
       </c>
       <c r="P9">
-        <v>0.01003627038065905</v>
+        <v>0.009334047251528615</v>
       </c>
       <c r="Q9">
-        <v>0.4397603305626754</v>
+        <v>0.6203887976315555</v>
       </c>
       <c r="R9">
-        <v>0.4397603305626754</v>
+        <v>5.583499178684001</v>
       </c>
       <c r="S9">
-        <v>6.315497750149687E-05</v>
+        <v>7.535855861913548E-05</v>
       </c>
       <c r="T9">
-        <v>6.315497750149687E-05</v>
+        <v>7.859931240082813E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H10">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J10">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6916897443058</v>
+        <v>18.43726666666667</v>
       </c>
       <c r="N10">
-        <v>10.6916897443058</v>
+        <v>55.3118</v>
       </c>
       <c r="O10">
-        <v>0.1760912012852911</v>
+        <v>0.2681681870437785</v>
       </c>
       <c r="P10">
-        <v>0.1760912012852911</v>
+        <v>0.2767624716176962</v>
       </c>
       <c r="Q10">
-        <v>7.71580696307557</v>
+        <v>18.39505761751111</v>
       </c>
       <c r="R10">
-        <v>7.71580696307557</v>
+        <v>165.5555185576</v>
       </c>
       <c r="S10">
-        <v>0.001108084520801225</v>
+        <v>0.002234445613885592</v>
       </c>
       <c r="T10">
-        <v>0.001108084520801225</v>
+        <v>0.002330536730885109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H11">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J11">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.9379413694214</v>
+        <v>40.98694466666667</v>
       </c>
       <c r="N11">
-        <v>40.9379413694214</v>
+        <v>122.960834</v>
       </c>
       <c r="O11">
-        <v>0.6742443380128489</v>
+        <v>0.5961509828132695</v>
       </c>
       <c r="P11">
-        <v>0.6742443380128489</v>
+        <v>0.6152564973480028</v>
       </c>
       <c r="Q11">
-        <v>29.54343612901668</v>
+        <v>40.89311188800978</v>
       </c>
       <c r="R11">
-        <v>29.54343612901668</v>
+        <v>368.038006992088</v>
       </c>
       <c r="S11">
-        <v>0.004242799803378444</v>
+        <v>0.004967281777324448</v>
       </c>
       <c r="T11">
-        <v>0.004242799803378444</v>
+        <v>0.005180897025540058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H12">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J12">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.26088973544918</v>
+        <v>2.301690333333334</v>
       </c>
       <c r="N12">
-        <v>2.26088973544918</v>
+        <v>6.905071</v>
       </c>
       <c r="O12">
-        <v>0.03723665753590194</v>
+        <v>0.03347785411934832</v>
       </c>
       <c r="P12">
-        <v>0.03723665753590194</v>
+        <v>0.03455075619769521</v>
       </c>
       <c r="Q12">
-        <v>1.631602597972462</v>
+        <v>2.296420996930223</v>
       </c>
       <c r="R12">
-        <v>1.631602597972462</v>
+        <v>20.667788972372</v>
       </c>
       <c r="S12">
-        <v>0.0002343181460558064</v>
+        <v>0.0002789460044605057</v>
       </c>
       <c r="T12">
-        <v>0.0002343181460558064</v>
+        <v>0.000290941925499976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H13">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J13">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.08428285767048</v>
+        <v>3.143733</v>
       </c>
       <c r="N13">
-        <v>3.08428285767048</v>
+        <v>6.287466</v>
       </c>
       <c r="O13">
-        <v>0.05079787072946804</v>
+        <v>0.04572527991276901</v>
       </c>
       <c r="P13">
-        <v>0.05079787072946804</v>
+        <v>0.0314604592577394</v>
       </c>
       <c r="Q13">
-        <v>2.225815724028351</v>
+        <v>3.136535947252</v>
       </c>
       <c r="R13">
-        <v>2.225815724028351</v>
+        <v>18.819215683512</v>
       </c>
       <c r="S13">
-        <v>0.0003196544394844045</v>
+        <v>0.0003809946745401919</v>
       </c>
       <c r="T13">
-        <v>0.0003196544394844045</v>
+        <v>0.0002649194287148723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H14">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I14">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J14">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.13260074011196</v>
+        <v>3.2611775</v>
       </c>
       <c r="N14">
-        <v>3.13260074011196</v>
+        <v>6.522354999999999</v>
       </c>
       <c r="O14">
-        <v>0.05159366205583095</v>
+        <v>0.04743349833867069</v>
       </c>
       <c r="P14">
-        <v>0.05159366205583095</v>
+        <v>0.03263576832733773</v>
       </c>
       <c r="Q14">
-        <v>118.2402318013333</v>
+        <v>137.1538506723233</v>
       </c>
       <c r="R14">
-        <v>118.2402318013333</v>
+        <v>822.9231040339399</v>
       </c>
       <c r="S14">
-        <v>0.01698074760320088</v>
+        <v>0.01666006306881888</v>
       </c>
       <c r="T14">
-        <v>0.01698074760320088</v>
+        <v>0.01158434667327521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H15">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I15">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J15">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.609369964636249</v>
+        <v>0.6218123333333333</v>
       </c>
       <c r="N15">
-        <v>0.609369964636249</v>
+        <v>1.865437</v>
       </c>
       <c r="O15">
-        <v>0.01003627038065905</v>
+        <v>0.009044197772164078</v>
       </c>
       <c r="P15">
-        <v>0.01003627038065905</v>
+        <v>0.009334047251528615</v>
       </c>
       <c r="Q15">
-        <v>23.00071150107216</v>
+        <v>26.15127692749289</v>
       </c>
       <c r="R15">
-        <v>23.00071150107216</v>
+        <v>235.361492347436</v>
       </c>
       <c r="S15">
-        <v>0.003303184294749852</v>
+        <v>0.003176592715454085</v>
       </c>
       <c r="T15">
-        <v>0.003303184294749852</v>
+        <v>0.003313200355570109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H16">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I16">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J16">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.6916897443058</v>
+        <v>18.43726666666667</v>
       </c>
       <c r="N16">
-        <v>10.6916897443058</v>
+        <v>55.3118</v>
       </c>
       <c r="O16">
-        <v>0.1760912012852911</v>
+        <v>0.2681681870437785</v>
       </c>
       <c r="P16">
-        <v>0.1760912012852911</v>
+        <v>0.2767624716176962</v>
       </c>
       <c r="Q16">
-        <v>403.5585695703668</v>
+        <v>775.4076922233777</v>
       </c>
       <c r="R16">
-        <v>403.5585695703668</v>
+        <v>6978.6692300104</v>
       </c>
       <c r="S16">
-        <v>0.05795596057775922</v>
+        <v>0.09418868659657401</v>
       </c>
       <c r="T16">
-        <v>0.05795596057775922</v>
+        <v>0.09823921977918459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H17">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I17">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J17">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.9379413694214</v>
+        <v>40.98694466666667</v>
       </c>
       <c r="N17">
-        <v>40.9379413694214</v>
+        <v>122.960834</v>
       </c>
       <c r="O17">
-        <v>0.6742443380128489</v>
+        <v>0.5961509828132695</v>
       </c>
       <c r="P17">
-        <v>0.6742443380128489</v>
+        <v>0.6152564973480028</v>
       </c>
       <c r="Q17">
-        <v>1545.205431068364</v>
+        <v>1723.769187149972</v>
       </c>
       <c r="R17">
-        <v>1545.205431068364</v>
+        <v>15513.92268434975</v>
       </c>
       <c r="S17">
-        <v>0.2219104531539935</v>
+        <v>0.2093860524748672</v>
       </c>
       <c r="T17">
-        <v>0.2219104531539935</v>
+        <v>0.218390585653655</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H18">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I18">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J18">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.26088973544918</v>
+        <v>2.301690333333334</v>
       </c>
       <c r="N18">
-        <v>2.26088973544918</v>
+        <v>6.905071</v>
       </c>
       <c r="O18">
-        <v>0.03723665753590194</v>
+        <v>0.03347785411934832</v>
       </c>
       <c r="P18">
-        <v>0.03723665753590194</v>
+        <v>0.03455075619769521</v>
       </c>
       <c r="Q18">
-        <v>85.33743958293633</v>
+        <v>96.80113770928756</v>
       </c>
       <c r="R18">
-        <v>85.33743958293633</v>
+        <v>871.210239383588</v>
       </c>
       <c r="S18">
-        <v>0.01225550306004142</v>
+        <v>0.01175842348913056</v>
       </c>
       <c r="T18">
-        <v>0.01225550306004142</v>
+        <v>0.01226408808897693</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H19">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I19">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J19">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.08428285767048</v>
+        <v>3.143733</v>
       </c>
       <c r="N19">
-        <v>3.08428285767048</v>
+        <v>6.287466</v>
       </c>
       <c r="O19">
-        <v>0.05079787072946804</v>
+        <v>0.04572527991276901</v>
       </c>
       <c r="P19">
-        <v>0.05079787072946804</v>
+        <v>0.0314604592577394</v>
       </c>
       <c r="Q19">
-        <v>116.4164699835965</v>
+        <v>132.214541047108</v>
       </c>
       <c r="R19">
-        <v>116.4164699835965</v>
+        <v>793.2872462826481</v>
       </c>
       <c r="S19">
-        <v>0.01671883303619143</v>
+        <v>0.01606008567504442</v>
       </c>
       <c r="T19">
-        <v>0.01671883303619143</v>
+        <v>0.01116716060999914</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H20">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I20">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J20">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.13260074011196</v>
+        <v>3.2611775</v>
       </c>
       <c r="N20">
-        <v>3.13260074011196</v>
+        <v>6.522354999999999</v>
       </c>
       <c r="O20">
-        <v>0.05159366205583095</v>
+        <v>0.04743349833867069</v>
       </c>
       <c r="P20">
-        <v>0.05159366205583095</v>
+        <v>0.03263576832733773</v>
       </c>
       <c r="Q20">
-        <v>225.9617783698781</v>
+        <v>235.5155590714208</v>
       </c>
       <c r="R20">
-        <v>225.9617783698781</v>
+        <v>1413.093354428525</v>
       </c>
       <c r="S20">
-        <v>0.03245088298639526</v>
+        <v>0.0286080489070059</v>
       </c>
       <c r="T20">
-        <v>0.03245088298639526</v>
+        <v>0.0198922149823688</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H21">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I21">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J21">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.609369964636249</v>
+        <v>0.6218123333333333</v>
       </c>
       <c r="N21">
-        <v>0.609369964636249</v>
+        <v>1.865437</v>
       </c>
       <c r="O21">
-        <v>0.01003627038065905</v>
+        <v>0.009044197772164078</v>
       </c>
       <c r="P21">
-        <v>0.01003627038065905</v>
+        <v>0.009334047251528615</v>
       </c>
       <c r="Q21">
-        <v>43.95527305196109</v>
+        <v>44.90601303440388</v>
       </c>
       <c r="R21">
-        <v>43.95527305196109</v>
+        <v>404.154117309635</v>
       </c>
       <c r="S21">
-        <v>0.006312516358892254</v>
+        <v>0.005454728435658426</v>
       </c>
       <c r="T21">
-        <v>0.006312516358892254</v>
+        <v>0.005689306062007529</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H22">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I22">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J22">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.6916897443058</v>
+        <v>18.43726666666667</v>
       </c>
       <c r="N22">
-        <v>10.6916897443058</v>
+        <v>55.3118</v>
       </c>
       <c r="O22">
-        <v>0.1760912012852911</v>
+        <v>0.2681681870437785</v>
       </c>
       <c r="P22">
-        <v>0.1760912012852911</v>
+        <v>0.2767624716176962</v>
       </c>
       <c r="Q22">
-        <v>771.2164520257314</v>
+        <v>1331.501632998778</v>
       </c>
       <c r="R22">
-        <v>771.2164520257314</v>
+        <v>11983.514696989</v>
       </c>
       <c r="S22">
-        <v>0.1107561421334879</v>
+        <v>0.1617373560658718</v>
       </c>
       <c r="T22">
-        <v>0.1107561421334879</v>
+        <v>0.168692782999666</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H23">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I23">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J23">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.9379413694214</v>
+        <v>40.98694466666667</v>
       </c>
       <c r="N23">
-        <v>40.9379413694214</v>
+        <v>122.960834</v>
       </c>
       <c r="O23">
-        <v>0.6742443380128489</v>
+        <v>0.5961509828132695</v>
       </c>
       <c r="P23">
-        <v>0.6742443380128489</v>
+        <v>0.6152564973480028</v>
       </c>
       <c r="Q23">
-        <v>2952.948939897668</v>
+        <v>2959.993188901674</v>
       </c>
       <c r="R23">
-        <v>2952.948939897668</v>
+        <v>26639.93870011507</v>
       </c>
       <c r="S23">
-        <v>0.424079688187625</v>
+        <v>0.3595500452130388</v>
       </c>
       <c r="T23">
-        <v>0.424079688187625</v>
+        <v>0.3750122991372539</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H24">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I24">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J24">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.26088973544918</v>
+        <v>2.301690333333334</v>
       </c>
       <c r="N24">
-        <v>2.26088973544918</v>
+        <v>6.905071</v>
       </c>
       <c r="O24">
-        <v>0.03723665753590194</v>
+        <v>0.03347785411934832</v>
       </c>
       <c r="P24">
-        <v>0.03723665753590194</v>
+        <v>0.03455075619769521</v>
       </c>
       <c r="Q24">
-        <v>163.0832358489583</v>
+        <v>166.2233612443006</v>
       </c>
       <c r="R24">
-        <v>163.0832358489583</v>
+        <v>1496.010251198705</v>
       </c>
       <c r="S24">
-        <v>0.02342075302184257</v>
+        <v>0.02019113330224519</v>
       </c>
       <c r="T24">
-        <v>0.02342075302184257</v>
+        <v>0.02105944199610729</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H25">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I25">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J25">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.08428285767048</v>
+        <v>3.143733</v>
       </c>
       <c r="N25">
-        <v>3.08428285767048</v>
+        <v>6.287466</v>
       </c>
       <c r="O25">
-        <v>0.05079787072946804</v>
+        <v>0.04572527991276901</v>
       </c>
       <c r="P25">
-        <v>0.05079787072946804</v>
+        <v>0.0314604592577394</v>
       </c>
       <c r="Q25">
-        <v>222.4764971133994</v>
+        <v>227.033957846905</v>
       </c>
       <c r="R25">
-        <v>222.4764971133994</v>
+        <v>1362.20374708143</v>
       </c>
       <c r="S25">
-        <v>0.03195035384804013</v>
+        <v>0.02757778974452276</v>
       </c>
       <c r="T25">
-        <v>0.03195035384804013</v>
+        <v>0.01917583838449984</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H26">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I26">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J26">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.13260074011196</v>
+        <v>3.2611775</v>
       </c>
       <c r="N26">
-        <v>3.13260074011196</v>
+        <v>6.522354999999999</v>
       </c>
       <c r="O26">
-        <v>0.05159366205583095</v>
+        <v>0.04743349833867069</v>
       </c>
       <c r="P26">
-        <v>0.05159366205583095</v>
+        <v>0.03263576832733773</v>
       </c>
       <c r="Q26">
-        <v>1.969262997386974</v>
+        <v>2.2668086072975</v>
       </c>
       <c r="R26">
-        <v>1.969262997386974</v>
+        <v>13.600851643785</v>
       </c>
       <c r="S26">
-        <v>0.0002828103211023473</v>
+        <v>0.0002753489907676255</v>
       </c>
       <c r="T26">
-        <v>0.0002828103211023473</v>
+        <v>0.0001914601494611727</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H27">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I27">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J27">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.609369964636249</v>
+        <v>0.6218123333333333</v>
       </c>
       <c r="N27">
-        <v>0.609369964636249</v>
+        <v>1.865437</v>
       </c>
       <c r="O27">
-        <v>0.01003627038065905</v>
+        <v>0.009044197772164078</v>
       </c>
       <c r="P27">
-        <v>0.01003627038065905</v>
+        <v>0.009334047251528615</v>
       </c>
       <c r="Q27">
-        <v>0.3830713910366647</v>
+        <v>0.4322149129643333</v>
       </c>
       <c r="R27">
-        <v>0.3830713910366647</v>
+        <v>3.889934216679</v>
       </c>
       <c r="S27">
-        <v>5.501375044773317E-05</v>
+        <v>5.250109766493718E-05</v>
       </c>
       <c r="T27">
-        <v>5.501375044773317E-05</v>
+        <v>5.475887878387511E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H28">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I28">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J28">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.6916897443058</v>
+        <v>18.43726666666667</v>
       </c>
       <c r="N28">
-        <v>10.6916897443058</v>
+        <v>55.3118</v>
       </c>
       <c r="O28">
-        <v>0.1760912012852911</v>
+        <v>0.2681681870437785</v>
       </c>
       <c r="P28">
-        <v>0.1760912012852911</v>
+        <v>0.2767624716176962</v>
       </c>
       <c r="Q28">
-        <v>6.721172195168</v>
+        <v>12.81554125006667</v>
       </c>
       <c r="R28">
-        <v>6.721172195168</v>
+        <v>115.3398712506</v>
       </c>
       <c r="S28">
-        <v>0.0009652427680923447</v>
+        <v>0.001556702377954052</v>
       </c>
       <c r="T28">
-        <v>0.0009652427680923447</v>
+        <v>0.001623647516114424</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H29">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I29">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J29">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.9379413694214</v>
+        <v>40.98694466666667</v>
       </c>
       <c r="N29">
-        <v>40.9379413694214</v>
+        <v>122.960834</v>
       </c>
       <c r="O29">
-        <v>0.6742443380128489</v>
+        <v>0.5961509828132695</v>
       </c>
       <c r="P29">
-        <v>0.6742443380128489</v>
+        <v>0.6152564973480028</v>
       </c>
       <c r="Q29">
-        <v>25.73502971371886</v>
+        <v>28.48957438140867</v>
       </c>
       <c r="R29">
-        <v>25.73502971371886</v>
+        <v>256.406169432678</v>
       </c>
       <c r="S29">
-        <v>0.003695865928813304</v>
+        <v>0.003460625448512133</v>
       </c>
       <c r="T29">
-        <v>0.003695865928813304</v>
+        <v>0.00360944776166131</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H30">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I30">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J30">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.26088973544918</v>
+        <v>2.301690333333334</v>
       </c>
       <c r="N30">
-        <v>2.26088973544918</v>
+        <v>6.905071</v>
       </c>
       <c r="O30">
-        <v>0.03723665753590194</v>
+        <v>0.03347785411934832</v>
       </c>
       <c r="P30">
-        <v>0.03723665753590194</v>
+        <v>0.03455075619769521</v>
       </c>
       <c r="Q30">
-        <v>1.42127480217379</v>
+        <v>1.599879632106333</v>
       </c>
       <c r="R30">
-        <v>1.42127480217379</v>
+        <v>14.398916688957</v>
       </c>
       <c r="S30">
-        <v>0.0002041124947306662</v>
+        <v>0.0001943372019287306</v>
       </c>
       <c r="T30">
-        <v>0.0002041124947306662</v>
+        <v>0.0002026945674836788</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H31">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I31">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J31">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.08428285767048</v>
+        <v>3.143733</v>
       </c>
       <c r="N31">
-        <v>3.08428285767048</v>
+        <v>6.287466</v>
       </c>
       <c r="O31">
-        <v>0.05079787072946804</v>
+        <v>0.04572527991276901</v>
       </c>
       <c r="P31">
-        <v>0.05079787072946804</v>
+        <v>0.0314604592577394</v>
       </c>
       <c r="Q31">
-        <v>1.938888677166166</v>
+        <v>2.185174227237</v>
       </c>
       <c r="R31">
-        <v>1.938888677166166</v>
+        <v>13.111045363422</v>
       </c>
       <c r="S31">
-        <v>0.0002784481961518909</v>
+        <v>0.0002654328716523034</v>
       </c>
       <c r="T31">
-        <v>0.0002784481961518909</v>
+        <v>0.0001845651118487175</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H32">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I32">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J32">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.13260074011196</v>
+        <v>3.2611775</v>
       </c>
       <c r="N32">
-        <v>3.13260074011196</v>
+        <v>6.522354999999999</v>
       </c>
       <c r="O32">
-        <v>0.05159366205583095</v>
+        <v>0.04743349833867069</v>
       </c>
       <c r="P32">
-        <v>0.05159366205583095</v>
+        <v>0.03263576832733773</v>
       </c>
       <c r="Q32">
-        <v>9.021661039890118</v>
+        <v>10.18724833802375</v>
       </c>
       <c r="R32">
-        <v>9.021661039890118</v>
+        <v>40.74899335209499</v>
       </c>
       <c r="S32">
-        <v>0.001295621183637408</v>
+        <v>0.00123744392867742</v>
       </c>
       <c r="T32">
-        <v>0.001295621183637408</v>
+        <v>0.000573626458248262</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H33">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I33">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J33">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.609369964636249</v>
+        <v>0.6218123333333333</v>
       </c>
       <c r="N33">
-        <v>0.609369964636249</v>
+        <v>1.865437</v>
       </c>
       <c r="O33">
-        <v>0.01003627038065905</v>
+        <v>0.009044197772164078</v>
       </c>
       <c r="P33">
-        <v>0.01003627038065905</v>
+        <v>0.009334047251528615</v>
       </c>
       <c r="Q33">
-        <v>1.754940934043699</v>
+        <v>1.942413946898833</v>
       </c>
       <c r="R33">
-        <v>1.754940934043699</v>
+        <v>11.654483681393</v>
       </c>
       <c r="S33">
-        <v>0.0002520310439647298</v>
+        <v>0.0002359448072544575</v>
       </c>
       <c r="T33">
-        <v>0.0002520310439647298</v>
+        <v>0.0001640609901477708</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H34">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I34">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J34">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10.6916897443058</v>
+        <v>18.43726666666667</v>
       </c>
       <c r="N34">
-        <v>10.6916897443058</v>
+        <v>55.3118</v>
       </c>
       <c r="O34">
-        <v>0.1760912012852911</v>
+        <v>0.2681681870437785</v>
       </c>
       <c r="P34">
-        <v>0.1760912012852911</v>
+        <v>0.2767624716176962</v>
       </c>
       <c r="Q34">
-        <v>30.79128456483381</v>
+        <v>57.59423220836666</v>
       </c>
       <c r="R34">
-        <v>30.79128456483381</v>
+        <v>345.5653932502</v>
       </c>
       <c r="S34">
-        <v>0.00442200614467911</v>
+        <v>0.006995965015112867</v>
       </c>
       <c r="T34">
-        <v>0.00442200614467911</v>
+        <v>0.004864548454252524</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H35">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I35">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J35">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.9379413694214</v>
+        <v>40.98694466666667</v>
       </c>
       <c r="N35">
-        <v>40.9379413694214</v>
+        <v>122.960834</v>
       </c>
       <c r="O35">
-        <v>0.6742443380128489</v>
+        <v>0.5961509828132695</v>
       </c>
       <c r="P35">
-        <v>0.6742443380128489</v>
+        <v>0.6152564973480028</v>
       </c>
       <c r="Q35">
-        <v>117.8982772929483</v>
+        <v>128.0347923215377</v>
       </c>
       <c r="R35">
-        <v>117.8982772929483</v>
+        <v>768.208753929226</v>
       </c>
       <c r="S35">
-        <v>0.0169316387414353</v>
+        <v>0.01555237205972506</v>
       </c>
       <c r="T35">
-        <v>0.0169316387414353</v>
+        <v>0.01081412890139719</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H36">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I36">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J36">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.26088973544918</v>
+        <v>2.301690333333334</v>
       </c>
       <c r="N36">
-        <v>2.26088973544918</v>
+        <v>6.905071</v>
       </c>
       <c r="O36">
-        <v>0.03723665753590194</v>
+        <v>0.03347785411934832</v>
       </c>
       <c r="P36">
-        <v>0.03723665753590194</v>
+        <v>0.03455075619769521</v>
       </c>
       <c r="Q36">
-        <v>6.511197095950487</v>
+        <v>7.190007603969834</v>
       </c>
       <c r="R36">
-        <v>6.511197095950487</v>
+        <v>43.140045623819</v>
       </c>
       <c r="S36">
-        <v>0.0009350877683223812</v>
+        <v>0.0008733694282751676</v>
       </c>
       <c r="T36">
-        <v>0.0009350877683223812</v>
+        <v>0.0006072854700001436</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H37">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I37">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J37">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.08428285767048</v>
+        <v>3.143733</v>
       </c>
       <c r="N37">
-        <v>3.08428285767048</v>
+        <v>6.287466</v>
       </c>
       <c r="O37">
-        <v>0.05079787072946804</v>
+        <v>0.04572527991276901</v>
       </c>
       <c r="P37">
-        <v>0.05079787072946804</v>
+        <v>0.0314604592577394</v>
       </c>
       <c r="Q37">
-        <v>8.882509072015427</v>
+        <v>9.8203758548685</v>
       </c>
       <c r="R37">
-        <v>8.882509072015427</v>
+        <v>39.281503419474</v>
       </c>
       <c r="S37">
-        <v>0.001275637254233929</v>
+        <v>0.001192879968733027</v>
       </c>
       <c r="T37">
-        <v>0.001275637254233929</v>
+        <v>0.0005529684987916738</v>
       </c>
     </row>
   </sheetData>
